--- a/7_Part 4 Graphics and tables/xlsx-files/Verkehrsaufkommen (Wege)_Wegegründe.xlsx
+++ b/7_Part 4 Graphics and tables/xlsx-files/Verkehrsaufkommen (Wege)_Wegegründe.xlsx
@@ -464,17 +464,17 @@
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>16.52</v>
+        <v>30.08</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>Sport</t>
+          <t>Arbeit</t>
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>11.51</v>
+        <v>14.58</v>
       </c>
     </row>
     <row r="4">
@@ -484,67 +484,67 @@
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>10.66</v>
+        <v>13.78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>Freizeit</t>
+          <t>Einkaufen</t>
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>10.54</v>
+        <v>10.22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>Arbeit</t>
+          <t>Freizeit</t>
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>10.52</v>
+        <v>9.31</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>Arztbesuch</t>
+          <t>Sport</t>
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>10.28</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>Begleitung</t>
+          <t>Erholung</t>
         </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>10.14</v>
+        <v>6.53</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>Erholung</t>
+          <t>Begleitung</t>
         </is>
       </c>
       <c r="B9" s="3" t="n">
-        <v>10</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>Einkaufen</t>
+          <t>Arztbesuch</t>
         </is>
       </c>
       <c r="B10" s="3" t="n">
-        <v>9.83</v>
+        <v>3.06</v>
       </c>
     </row>
   </sheetData>
